--- a/mods.xlsx
+++ b/mods.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Desktop\Game_Dev\Guanaco-Firework-Mania-Mods\Auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Desktop\Game_Dev\Guanaco-Firework-Mania-Mods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6356F5F6-30CD-43BA-B814-CD14D966C9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E4AE6B-4CDC-4F9D-9DFD-290AE435C67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C08B4562-FE3A-4FB1-B04C-770BC5ACD0FC}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t>mod_image</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>https://thumb.modcdn.io/mods/cab8/1470149/crop_320x180/the_hell_mod_thumbail.png</t>
   </si>
   <si>
     <t>https://fireworksmania.mod.io/hell-yeah-mod</t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,13 +440,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/mods.xlsx
+++ b/mods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Desktop\Game_Dev\Guanaco-Firework-Mania-Mods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E4AE6B-4CDC-4F9D-9DFD-290AE435C67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73F8DBB-F066-4509-BBB0-42BFDAE1994C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C08B4562-FE3A-4FB1-B04C-770BC5ACD0FC}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>https://fireworksmania.mod.io/hell-yeah-mod</t>
   </si>
   <si>
-    <t>test1</t>
+    <t>test2</t>
   </si>
 </sst>
 </file>
